--- a/RQ3/result/GA/GA_2.xlsx
+++ b/RQ3/result/GA/GA_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA62CEA-F6D0-488F-8690-BCDC8DD201DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349B589-84FA-4E09-96CD-E102CD07A7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,18 +56,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -264,213 +252,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDeclaredConstructors can access public, protected, default (package) access, and private constructors; but getDeclaredConstructors only access public data.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/lang/Class.html</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/util/Hashtable.html</t>
-  </si>
-  <si>
-    <r>
-      <t> Unlike the new collection implementations, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hashtable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> is synchronized. If a thread-safe implementation is not needed, it is recommended to use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF4C6B87"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>HashMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> in place of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hashtable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. If a thread-safe highly-concurrent implementation is desired, then it is recommended to use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF4C6B87"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>ConcurrentHashMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> in place of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hashtable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Java difference between FileWriter and BufferedWriter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.journaldev.com/20601/java-bufferedwriter</t>
-  </si>
-  <si>
-    <t>1. find in java.sql.DriverManager.registerDriver(java.sql.Driver): java.sql.DriverManager.registerDriver(java.sql.Driver) registers the given driver with the DriverManager.</t>
-  </si>
-  <si>
-    <t>https://javarevisited.blogspot.com/2012/06/how-to-close-java-program-or-swing.html</t>
-  </si>
-  <si>
-    <t>find in a blog "How to Close Java Program or Swing Application with Example?"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n the doc of  StringBuffer, find "The StringBuilder class should generally be used in preference to this one, as it supports all of the same operations but it is faster, as it performs no synchronization."</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/lang/StringBuffer.html</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/util/LinkedHashMap.html</t>
-  </si>
-  <si>
-    <t>in doc of LinkedHashMap, find "Iteration over the collection-views of a LinkedHashMap requires time proportional to the size of the map, regardless of its capacity. Iteration over a HashMap is likely to be more expensive, requiring time proportional to its capacity.".</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etCause return the cause of exception, and getNextException retrive next exception</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.includehelp.com/java/difference-between-next-and-nextline-methods.aspx</t>
-  </si>
-  <si>
-    <t>At first I think both apis are right, but finally I find "With the help of next() method we can't read those words which contain space itself (If we do then we will get irrelevant results).".</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BufferedWriter is used to make lower-level classes like FileWriter more efficient and easier to use. Compared to FileWriters, BufferedWriters write relatively large chunks of data to a file at once, minimizing the number of times that slow, file-writing operations are performed.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>find in : file reader part of audio file reader class</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>find in doc of java.util.HashMap, "This class makes no guarantees as to the order of the map.".</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>java.time.Instant.now() obtains the current instant from the system clock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,  if system clock time is wrong, the return value is wrong.</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -486,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,33 +308,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF353833"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF353833"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.2"/>
-      <color rgb="FF4C6B87"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -577,18 +332,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,18 +350,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,13 +666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="2.625" style="3" customWidth="1"/>
@@ -939,13 +684,10 @@
     <col min="8" max="8" width="17" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -976,23 +718,8 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1000,22 +727,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -1023,14 +750,8 @@
       <c r="J2" s="1">
         <v>126</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1038,22 +759,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1061,17 +782,8 @@
       <c r="J3" s="3">
         <v>206</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1079,22 +791,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1102,20 +814,8 @@
       <c r="J4" s="1">
         <v>153</v>
       </c>
-      <c r="K4" s="1">
-        <v>260</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1123,22 +823,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -1146,17 +846,8 @@
       <c r="J5" s="3">
         <v>311</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1164,22 +855,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -1187,14 +878,8 @@
       <c r="J6" s="1">
         <v>93</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1202,40 +887,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="7">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>81</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1243,22 +919,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1266,20 +942,8 @@
       <c r="J8" s="1">
         <v>191</v>
       </c>
-      <c r="K8" s="1">
-        <v>222</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1287,40 +951,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="7">
+        <v>50</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>143</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1328,22 +983,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1351,14 +1006,8 @@
       <c r="J10" s="1">
         <v>102</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1366,40 +1015,31 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>209</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1407,22 +1047,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -1430,14 +1070,8 @@
       <c r="J12" s="1">
         <v>78</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1445,48 +1079,33 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>59</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="7">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{B7D5B86E-7FE7-428D-A2DA-6F64DD5F7929}"/>
-    <hyperlink ref="N4" r:id="rId2" xr:uid="{31A39B93-FE0B-47EE-A0CF-76FD5E6E30FE}"/>
-    <hyperlink ref="N5" r:id="rId3" xr:uid="{501E7BFD-424B-44BD-ABDF-0E751688B07E}"/>
-    <hyperlink ref="N7" r:id="rId4" xr:uid="{0BA0E2E2-0F94-44AC-AD21-F4788CBA8F21}"/>
-    <hyperlink ref="N8" r:id="rId5" xr:uid="{623A5E5F-2E24-463E-86FA-96E7FE29FEF2}"/>
-    <hyperlink ref="N9" r:id="rId6" xr:uid="{3DEB1C78-DEAC-44A5-8ECF-745F3DDE7068}"/>
-    <hyperlink ref="N11" r:id="rId7" xr:uid="{889E6475-D8F5-4AE7-A2E4-AC06C81A57C3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GA/GA_2.xlsx
+++ b/RQ3/result/GA/GA_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349B589-84FA-4E09-96CD-E102CD07A7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD33CC0-9C8A-401E-BCB9-DE39C505769B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -261,6 +257,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +669,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -716,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -727,22 +727,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -759,22 +759,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -791,22 +791,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -823,22 +823,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -855,22 +855,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -887,22 +887,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -919,22 +919,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -951,22 +951,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -983,22 +983,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1015,22 +1015,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1047,22 +1047,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -1079,22 +1079,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
